--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T16:43:35-04:00</t>
+    <t>2023-05-17T15:26:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -122,115 +122,124 @@
     <t>Kindergarden</t>
   </si>
   <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Some elementary school education</t>
+  </si>
+  <si>
     <t>G1</t>
   </si>
   <si>
+    <t>transportationGrade 1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Grade 2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>Grade 3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>Grade 4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>Grade 5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>Grade 6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>Grade 7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>Grade 8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>Grade 9</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>Grade 10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>Grade 11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>Grade 12</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>https://voicecollab.ai/fhir/CodeSystem/child-education</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Pre-school</t>
+  </si>
+  <si>
     <t>Grade 1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>Grade 2</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>Grade 3</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>Grade 4</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>Grade 5</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>Grade 6</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>Grade 7</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>Grade 8</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>Grade 9</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>Grade 10</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>Grade 11</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>Grade 12</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>https://voicecollab.ai/fhir/CodeSystem/child-education</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Pre-school</t>
   </si>
 </sst>
 </file>
@@ -516,7 +525,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -659,15 +668,23 @@
         <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +694,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -685,33 +702,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -721,39 +738,39 @@
         <v>30</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
         <v>31</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -763,18 +780,18 @@
         <v>34</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -784,39 +801,39 @@
         <v>36</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -826,18 +843,18 @@
         <v>40</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -847,18 +864,18 @@
         <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -868,18 +885,18 @@
         <v>44</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -889,18 +906,18 @@
         <v>46</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -910,18 +927,18 @@
         <v>48</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -931,18 +948,18 @@
         <v>50</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -952,18 +969,18 @@
         <v>52</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -973,18 +990,18 @@
         <v>54</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -994,18 +1011,18 @@
         <v>56</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -1015,10 +1032,31 @@
         <v>58</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:26:12-04:00</t>
+    <t>2023-05-23T11:50:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23T11:50:31-04:00</t>
+    <t>2023-05-26T16:04:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T16:04:32-04:00</t>
+    <t>2023-05-30T15:29:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T15:29:53-04:00</t>
+    <t>2023-06-08T09:02:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -131,7 +131,7 @@
     <t>G1</t>
   </si>
   <si>
-    <t>transportationGrade 1</t>
+    <t>Grade 1</t>
   </si>
   <si>
     <t>G2</t>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>Pre-school</t>
-  </si>
-  <si>
-    <t>Grade 1</t>
   </si>
 </sst>
 </file>
@@ -819,7 +816,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>72</v>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T09:02:09-04:00</t>
+    <t>2023-06-08T10:27:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T10:27:07-04:00</t>
+    <t>2023-06-09T08:59:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T08:59:53-04:00</t>
+    <t>2023-06-26T13:45:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T13:45:18-04:00</t>
+    <t>2023-06-26T14:02:38-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T14:02:38-04:00</t>
+    <t>2023-06-27T11:58:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T11:58:55-04:00</t>
+    <t>2023-06-27T12:07:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T12:07:05-04:00</t>
+    <t>2023-06-27T13:18:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T13:18:32-04:00</t>
+    <t>2023-06-27T14:37:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T14:37:57-04:00</t>
+    <t>2023-06-27T14:58:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T14:58:12-04:00</t>
+    <t>2023-07-04T05:55:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,10 +358,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T05:55:31+00:00</t>
+    <t>2023-07-07T14:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:27:15+00:00</t>
+    <t>2023-07-07T14:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:44:27+00:00</t>
+    <t>2023-07-07T14:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:51:33+00:00</t>
+    <t>2023-07-11T16:10:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,10 +358,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T16:10:46-04:00</t>
+    <t>2023-07-25T13:28:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T13:28:49-04:00</t>
+    <t>2023-07-28T14:17:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T14:17:54-04:00</t>
+    <t>2023-08-01T11:06:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T11:06:47-04:00</t>
+    <t>2023-08-03T16:45:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T16:45:03-04:00</t>
+    <t>2023-08-04T11:46:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T11:46:30-04:00</t>
+    <t>2023-08-04T15:04:45-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T15:04:45-04:00</t>
+    <t>2023-08-08T14:12:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-08T14:12:31-04:00</t>
+    <t>2023-08-10T15:12:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T15:12:17-04:00</t>
+    <t>2023-08-16T16:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,10 +358,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T16:37:06+00:00</t>
+    <t>2023-08-16T17:53:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T17:53:24+00:00</t>
+    <t>2023-08-16T18:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T18:12:30+00:00</t>
+    <t>2023-08-16T22:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T22:53:49+00:00</t>
+    <t>2023-08-16T23:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T23:37:19+00:00</t>
+    <t>2023-08-21T16:52:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,10 +358,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T16:52:35-04:00</t>
+    <t>2023-08-21T17:33:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T17:33:05-04:00</t>
+    <t>2023-08-22T05:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,10 +358,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Questionnaire co" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from Child Education " r:id="rId5" sheetId="3"/>
     <sheet name="Expansion" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T05:01:43+00:00</t>
+    <t>2023-08-29T20:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T20:22:11+00:00</t>
+    <t>2023-09-15T16:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T16:24:43+00:00</t>
+    <t>2023-10-04T03:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T03:12:19+00:00</t>
+    <t>2023-10-04T15:51:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T15:51:42+00:00</t>
+    <t>2024-01-15T14:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-Highest-Education.xlsx
+++ b/vbai-fhir/ValueSet-Highest-Education.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:18+00:00</t>
+    <t>2024-02-07T17:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
